--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H2">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I2">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J2">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>103.4587103116508</v>
+        <v>140.330596374921</v>
       </c>
       <c r="R2">
-        <v>103.4587103116508</v>
+        <v>561.3223854996839</v>
       </c>
       <c r="S2">
-        <v>0.0115346537182915</v>
+        <v>0.01381272833466232</v>
       </c>
       <c r="T2">
-        <v>0.0115346537182915</v>
+        <v>0.007660980575213401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H3">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I3">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J3">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>25.08752280660805</v>
+        <v>35.72908958185901</v>
       </c>
       <c r="R3">
-        <v>25.08752280660805</v>
+        <v>214.374537491154</v>
       </c>
       <c r="S3">
-        <v>0.002797018127833522</v>
+        <v>0.003516811164405699</v>
       </c>
       <c r="T3">
-        <v>0.002797018127833522</v>
+        <v>0.002925803798254208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H4">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I4">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J4">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>74.07707008744684</v>
+        <v>107.2768725940845</v>
       </c>
       <c r="R4">
-        <v>74.07707008744684</v>
+        <v>643.661235564507</v>
       </c>
       <c r="S4">
-        <v>0.008258882691949482</v>
+        <v>0.01055925319219327</v>
       </c>
       <c r="T4">
-        <v>0.008258882691949482</v>
+        <v>0.008784748925143875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H5">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I5">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J5">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>68.41352843663412</v>
+        <v>92.89815886068151</v>
       </c>
       <c r="R5">
-        <v>68.41352843663412</v>
+        <v>557.388953164089</v>
       </c>
       <c r="S5">
-        <v>0.007627452128351118</v>
+        <v>0.009143957656280708</v>
       </c>
       <c r="T5">
-        <v>0.007627452128351118</v>
+        <v>0.007607296721700085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H6">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I6">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J6">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>77.50171673141965</v>
+        <v>108.518677617071</v>
       </c>
       <c r="R6">
-        <v>77.50171673141965</v>
+        <v>651.1120657024261</v>
       </c>
       <c r="S6">
-        <v>0.008640697940049352</v>
+        <v>0.01068148395205768</v>
       </c>
       <c r="T6">
-        <v>0.008640697940049352</v>
+        <v>0.008886438553832031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.977346302245013</v>
+        <v>1.3034235</v>
       </c>
       <c r="H7">
-        <v>0.977346302245013</v>
+        <v>2.606847</v>
       </c>
       <c r="I7">
-        <v>0.04093293843686223</v>
+        <v>0.05019481880249994</v>
       </c>
       <c r="J7">
-        <v>0.04093293843686223</v>
+        <v>0.03724108001642075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>18.60459466038024</v>
+        <v>25.20153109627426</v>
       </c>
       <c r="R7">
-        <v>18.60459466038024</v>
+        <v>100.806124385097</v>
       </c>
       <c r="S7">
-        <v>0.002074233830387257</v>
+        <v>0.002480584502900264</v>
       </c>
       <c r="T7">
-        <v>0.002074233830387257</v>
+        <v>0.001375811442277156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H8">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I8">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J8">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>365.4410975524733</v>
+        <v>439.9331532270673</v>
       </c>
       <c r="R8">
-        <v>365.4410975524733</v>
+        <v>2639.598919362404</v>
       </c>
       <c r="S8">
-        <v>0.04074317669341245</v>
+        <v>0.04330258181688194</v>
       </c>
       <c r="T8">
-        <v>0.04074317669341245</v>
+        <v>0.03602549367345879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H9">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I9">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J9">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>88.61517644771095</v>
+        <v>112.0098641901638</v>
       </c>
       <c r="R9">
-        <v>88.61517644771095</v>
+        <v>1008.088777711474</v>
       </c>
       <c r="S9">
-        <v>0.009879742086776612</v>
+        <v>0.01102512114127702</v>
       </c>
       <c r="T9">
-        <v>0.009879742086776612</v>
+        <v>0.01375849020748269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H10">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I10">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J10">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>261.6580635374451</v>
+        <v>336.3104985498964</v>
       </c>
       <c r="R10">
-        <v>261.6580635374451</v>
+        <v>3026.794486949067</v>
       </c>
       <c r="S10">
-        <v>0.02917236399343809</v>
+        <v>0.03310301297482945</v>
       </c>
       <c r="T10">
-        <v>0.02917236399343809</v>
+        <v>0.04130997510287761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H11">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I11">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J11">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>241.6530695579863</v>
+        <v>291.2335656821343</v>
       </c>
       <c r="R11">
-        <v>241.6530695579863</v>
+        <v>2621.102091139209</v>
       </c>
       <c r="S11">
-        <v>0.02694199907303198</v>
+        <v>0.0286660944129022</v>
       </c>
       <c r="T11">
-        <v>0.02694199907303198</v>
+        <v>0.03577304722667258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H12">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I12">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J12">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>273.754740796739</v>
+        <v>340.2035283920562</v>
       </c>
       <c r="R12">
-        <v>273.754740796739</v>
+        <v>3061.831755528506</v>
       </c>
       <c r="S12">
-        <v>0.03052102746418476</v>
+        <v>0.0334862035618973</v>
       </c>
       <c r="T12">
-        <v>0.03052102746418476</v>
+        <v>0.04178816703131224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.45222267226588</v>
+        <v>4.086202333333333</v>
       </c>
       <c r="H13">
-        <v>3.45222267226588</v>
+        <v>12.258607</v>
       </c>
       <c r="I13">
-        <v>0.1445850030737356</v>
+        <v>0.1573595885849988</v>
       </c>
       <c r="J13">
-        <v>0.1445850030737356</v>
+        <v>0.1751248785129528</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>65.71591190077491</v>
+        <v>79.00621338280952</v>
       </c>
       <c r="R13">
-        <v>65.71591190077491</v>
+        <v>474.0372802968571</v>
       </c>
       <c r="S13">
-        <v>0.007326693762891684</v>
+        <v>0.00777657467721087</v>
       </c>
       <c r="T13">
-        <v>0.007326693762891684</v>
+        <v>0.006469705271148958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H14">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I14">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J14">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>519.4417559250398</v>
+        <v>584.0111248048472</v>
       </c>
       <c r="R14">
-        <v>519.4417559250398</v>
+        <v>3504.066748829084</v>
       </c>
       <c r="S14">
-        <v>0.05791277277058705</v>
+        <v>0.05748416396519761</v>
       </c>
       <c r="T14">
-        <v>0.05791277277058705</v>
+        <v>0.04782383170614865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H15">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I15">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J15">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>125.9585283754155</v>
+        <v>148.6930600594504</v>
       </c>
       <c r="R15">
-        <v>125.9585283754155</v>
+        <v>1338.237540535054</v>
       </c>
       <c r="S15">
-        <v>0.01404316759120085</v>
+        <v>0.01463584490415427</v>
       </c>
       <c r="T15">
-        <v>0.01404316759120085</v>
+        <v>0.0182643914939077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H16">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I16">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J16">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>371.9234779178609</v>
+        <v>446.4520827791063</v>
       </c>
       <c r="R16">
-        <v>371.9234779178609</v>
+        <v>4018.068745011957</v>
       </c>
       <c r="S16">
-        <v>0.04146589991854989</v>
+        <v>0.04394423948285911</v>
       </c>
       <c r="T16">
-        <v>0.04146589991854989</v>
+        <v>0.05483897916881852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H17">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I17">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J17">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>343.4881725579654</v>
+        <v>386.6124683428043</v>
       </c>
       <c r="R17">
-        <v>343.4881725579654</v>
+        <v>3479.512215085239</v>
       </c>
       <c r="S17">
-        <v>0.03829563615136918</v>
+        <v>0.03805423146457</v>
       </c>
       <c r="T17">
-        <v>0.03829563615136918</v>
+        <v>0.04748870912614044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H18">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I18">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J18">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>389.1178200936853</v>
+        <v>451.6200786901695</v>
       </c>
       <c r="R18">
-        <v>389.1178200936853</v>
+        <v>4064.580708211526</v>
       </c>
       <c r="S18">
-        <v>0.04338290412548921</v>
+        <v>0.04445292486864229</v>
       </c>
       <c r="T18">
-        <v>0.04338290412548921</v>
+        <v>0.05547377880587511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.90702501370562</v>
+        <v>5.424432333333333</v>
       </c>
       <c r="H19">
-        <v>4.90702501370562</v>
+        <v>16.273297</v>
       </c>
       <c r="I19">
-        <v>0.2055146188539028</v>
+        <v>0.2088948051635471</v>
       </c>
       <c r="J19">
-        <v>0.2055146188539028</v>
+        <v>0.232478222046779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>93.40927689462252</v>
+        <v>104.8807238231745</v>
       </c>
       <c r="R19">
-        <v>93.40927689462252</v>
+        <v>629.2843429390471</v>
       </c>
       <c r="S19">
-        <v>0.01041423829670669</v>
+        <v>0.01032340047812379</v>
       </c>
       <c r="T19">
-        <v>0.01041423829670669</v>
+        <v>0.008588531745888623</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H20">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I20">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J20">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>656.8529106922953</v>
+        <v>715.6208856068347</v>
       </c>
       <c r="R20">
-        <v>656.8529106922953</v>
+        <v>4293.725313641008</v>
       </c>
       <c r="S20">
-        <v>0.07323279833920619</v>
+        <v>0.07043850121671823</v>
       </c>
       <c r="T20">
-        <v>0.07323279833920619</v>
+        <v>0.05860116587693855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H21">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I21">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J21">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>159.2791204137415</v>
+        <v>182.2017677469609</v>
       </c>
       <c r="R21">
-        <v>159.2791204137415</v>
+        <v>1639.815909722648</v>
       </c>
       <c r="S21">
-        <v>0.01775809395837468</v>
+        <v>0.01793410407278636</v>
       </c>
       <c r="T21">
-        <v>0.01775809395837468</v>
+        <v>0.02238036136778688</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H22">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I22">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J22">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>470.3107061350746</v>
+        <v>547.0622412649427</v>
       </c>
       <c r="R22">
-        <v>470.3107061350746</v>
+        <v>4923.560171384484</v>
       </c>
       <c r="S22">
-        <v>0.05243513203413985</v>
+        <v>0.05384728858812563</v>
       </c>
       <c r="T22">
-        <v>0.05243513203413985</v>
+        <v>0.06719721110052207</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H23">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I23">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J23">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>434.3532327917745</v>
+        <v>473.7374773033187</v>
       </c>
       <c r="R23">
-        <v>434.3532327917745</v>
+        <v>4263.637295729868</v>
       </c>
       <c r="S23">
-        <v>0.04842621869711601</v>
+        <v>0.04662993848081749</v>
       </c>
       <c r="T23">
-        <v>0.04842621869711601</v>
+        <v>0.05819052178591638</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H24">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I24">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J24">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>492.0535744678612</v>
+        <v>553.3948703084792</v>
       </c>
       <c r="R24">
-        <v>492.0535744678612</v>
+        <v>4980.553832776312</v>
       </c>
       <c r="S24">
-        <v>0.05485925327347891</v>
+        <v>0.05447060871133572</v>
       </c>
       <c r="T24">
-        <v>0.05485925327347891</v>
+        <v>0.0679750659377996</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.20511082585662</v>
+        <v>6.646854666666667</v>
       </c>
       <c r="H25">
-        <v>6.20511082585662</v>
+        <v>19.940564</v>
       </c>
       <c r="I25">
-        <v>0.2598806777549175</v>
+        <v>0.2559702702919538</v>
       </c>
       <c r="J25">
-        <v>0.2598806777549175</v>
+        <v>0.2848683254124845</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>118.119413223972</v>
+        <v>128.516107446594</v>
       </c>
       <c r="R25">
-        <v>118.119413223972</v>
+        <v>771.0966446795642</v>
       </c>
       <c r="S25">
-        <v>0.01316918145260183</v>
+        <v>0.01264982922217041</v>
       </c>
       <c r="T25">
-        <v>0.01316918145260183</v>
+        <v>0.0105239993435211</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H26">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I26">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J26">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N26">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O26">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P26">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q26">
-        <v>184.0818876811049</v>
+        <v>205.3306593203693</v>
       </c>
       <c r="R26">
-        <v>184.0818876811049</v>
+        <v>1231.983955922216</v>
       </c>
       <c r="S26">
-        <v>0.02052336457524796</v>
+        <v>0.02021067884862366</v>
       </c>
       <c r="T26">
-        <v>0.02052336457524796</v>
+        <v>0.01681423260341355</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H27">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I27">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J27">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N27">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P27">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q27">
-        <v>44.63769692828961</v>
+        <v>52.27853162655511</v>
       </c>
       <c r="R27">
-        <v>44.63769692828961</v>
+        <v>470.506784638996</v>
       </c>
       <c r="S27">
-        <v>0.004976674997193372</v>
+        <v>0.005145771298252022</v>
       </c>
       <c r="T27">
-        <v>0.004976674997193372</v>
+        <v>0.006421520735213031</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H28">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I28">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J28">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N28">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O28">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P28">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q28">
-        <v>131.8037587604367</v>
+        <v>156.9667025480353</v>
       </c>
       <c r="R28">
-        <v>131.8037587604367</v>
+        <v>1412.700322932318</v>
       </c>
       <c r="S28">
-        <v>0.01469485470571982</v>
+        <v>0.0154502188110934</v>
       </c>
       <c r="T28">
-        <v>0.01469485470571982</v>
+        <v>0.01928066653345376</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H29">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I29">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J29">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N29">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O29">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P29">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q29">
-        <v>121.7267392914944</v>
+        <v>135.9278781766873</v>
       </c>
       <c r="R29">
-        <v>121.7267392914944</v>
+        <v>1223.350903590186</v>
       </c>
       <c r="S29">
-        <v>0.01357136370398015</v>
+        <v>0.01337936916725879</v>
       </c>
       <c r="T29">
-        <v>0.01357136370398015</v>
+        <v>0.01669640789531536</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H30">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I30">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J30">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N30">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O30">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P30">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q30">
-        <v>137.8971598570119</v>
+        <v>158.7837021953249</v>
       </c>
       <c r="R30">
-        <v>137.8971598570119</v>
+        <v>1429.053319757924</v>
       </c>
       <c r="S30">
-        <v>0.01537421047387053</v>
+        <v>0.01562906592754927</v>
       </c>
       <c r="T30">
-        <v>0.01537421047387053</v>
+        <v>0.01950385376821186</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.73897153457121</v>
+        <v>1.907159333333333</v>
       </c>
       <c r="H31">
-        <v>1.73897153457121</v>
+        <v>5.721477999999999</v>
       </c>
       <c r="I31">
-        <v>0.07283110869151742</v>
+        <v>0.07344467639578636</v>
       </c>
       <c r="J31">
-        <v>0.07283110869151742</v>
+        <v>0.08173629676394162</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N31">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O31">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P31">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q31">
-        <v>33.10276045688273</v>
+        <v>36.874688268663</v>
       </c>
       <c r="R31">
-        <v>33.10276045688273</v>
+        <v>221.248129611978</v>
       </c>
       <c r="S31">
-        <v>0.003690640235505584</v>
+        <v>0.003629572343009209</v>
       </c>
       <c r="T31">
-        <v>0.003690640235505584</v>
+        <v>0.003019615228334083</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H32">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I32">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J32">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N32">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O32">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P32">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q32">
-        <v>698.2409444982474</v>
+        <v>710.492336561377</v>
       </c>
       <c r="R32">
-        <v>698.2409444982474</v>
+        <v>2841.969346245508</v>
       </c>
       <c r="S32">
-        <v>0.07784716707234164</v>
+        <v>0.06993369858246846</v>
       </c>
       <c r="T32">
-        <v>0.07784716707234164</v>
+        <v>0.03878746424402314</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H33">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I33">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J33">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N33">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P33">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q33">
-        <v>169.3152327806919</v>
+        <v>180.8960055468164</v>
       </c>
       <c r="R33">
-        <v>169.3152327806919</v>
+        <v>1085.376033280898</v>
       </c>
       <c r="S33">
-        <v>0.01887702421066489</v>
+        <v>0.01780557801356489</v>
       </c>
       <c r="T33">
-        <v>0.01887702421066489</v>
+        <v>0.01481331392184753</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H34">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I34">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J34">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N34">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O34">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P34">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q34">
-        <v>499.9447917697171</v>
+        <v>543.1416799849766</v>
       </c>
       <c r="R34">
-        <v>499.9447917697171</v>
+        <v>3258.850079909859</v>
       </c>
       <c r="S34">
-        <v>0.05573904830203193</v>
+        <v>0.05346138808404107</v>
       </c>
       <c r="T34">
-        <v>0.05573904830203193</v>
+        <v>0.04447709160484947</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H35">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I35">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J35">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N35">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O35">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P35">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q35">
-        <v>461.7216527072218</v>
+        <v>470.3424032691655</v>
       </c>
       <c r="R35">
-        <v>461.7216527072218</v>
+        <v>2822.054419614993</v>
       </c>
       <c r="S35">
-        <v>0.05147753497189395</v>
+        <v>0.04629576164040463</v>
       </c>
       <c r="T35">
-        <v>0.05147753497189395</v>
+        <v>0.03851566345714135</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H36">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I36">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J36">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N36">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O36">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P36">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q36">
-        <v>523.0576693617262</v>
+        <v>549.4289257825936</v>
       </c>
       <c r="R36">
-        <v>523.0576693617262</v>
+        <v>3296.573554695562</v>
       </c>
       <c r="S36">
-        <v>0.05831591243124835</v>
+        <v>0.05408024113832235</v>
       </c>
       <c r="T36">
-        <v>0.05831591243124835</v>
+        <v>0.04499194512758144</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.59609232635657</v>
+        <v>6.5992195</v>
       </c>
       <c r="H37">
-        <v>6.59609232635657</v>
+        <v>13.198439</v>
       </c>
       <c r="I37">
-        <v>0.2762556531890644</v>
+        <v>0.254135840761214</v>
       </c>
       <c r="J37">
-        <v>0.2762556531890644</v>
+        <v>0.1885511972474212</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N37">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O37">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P37">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q37">
-        <v>125.5620692403706</v>
+        <v>127.5950874296723</v>
       </c>
       <c r="R37">
-        <v>125.5620692403706</v>
+        <v>510.3803497186891</v>
       </c>
       <c r="S37">
-        <v>0.01399896620088368</v>
+        <v>0.01255917330241263</v>
       </c>
       <c r="T37">
-        <v>0.01399896620088368</v>
+        <v>0.006965718891978344</v>
       </c>
     </row>
   </sheetData>
